--- a/fileGenerated/Suivi Projet FREE-IDF-Nouveau.xlsx
+++ b/fileGenerated/Suivi Projet FREE-IDF-Nouveau.xlsx
@@ -797,51 +797,28 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A. MESSAOUDI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Attente prise en charge</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>77096_002_01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>43499</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>43290</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>43292</v>
-      </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="31" t="n"/>
-      <c r="N4" s="31" t="n"/>
-      <c r="O4" s="31" t="n"/>
-      <c r="P4" s="31" t="n"/>
-      <c r="T4" s="6" t="n"/>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" s="31" t="inlineStr"/>
+      <c r="M4" s="31" t="inlineStr"/>
+      <c r="N4" s="31" t="inlineStr"/>
+      <c r="O4" s="31" t="inlineStr"/>
+      <c r="P4" s="31" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" s="6" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1478,63 +1455,28 @@
       <c r="U17" s="12" t="n"/>
     </row>
     <row r="18" ht="18.75" customFormat="1" customHeight="1" s="17">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>R. SERVY</t>
-        </is>
-      </c>
-      <c r="B18" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C18" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D18" s="17" t="inlineStr">
-        <is>
-          <t>78172_011_01</t>
-        </is>
-      </c>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>Travaux en cours</t>
-        </is>
-      </c>
-      <c r="F18" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G18" s="20" t="n">
-        <v>44049</v>
-      </c>
-      <c r="H18" s="20" t="n">
-        <v>44074</v>
-      </c>
-      <c r="I18" s="20" t="n">
-        <v>44074</v>
-      </c>
-      <c r="L18" s="21" t="inlineStr">
-        <is>
-          <t>15-01 =&gt;19</t>
-        </is>
-      </c>
-      <c r="M18" s="32" t="n"/>
-      <c r="N18" s="33" t="n"/>
-      <c r="O18" s="33" t="n"/>
-      <c r="P18" s="21" t="n"/>
-      <c r="Q18" s="34" t="n"/>
-      <c r="R18" s="34" t="n"/>
-      <c r="T18" s="34" t="n"/>
-      <c r="U18" s="35" t="n"/>
-      <c r="V18" s="17" t="inlineStr">
-        <is>
-          <t>Attente facturation</t>
-        </is>
-      </c>
+      <c r="A18" s="17" t="inlineStr"/>
+      <c r="B18" s="17" t="inlineStr"/>
+      <c r="C18" s="17" t="inlineStr"/>
+      <c r="D18" s="17" t="inlineStr"/>
+      <c r="E18" s="17" t="inlineStr"/>
+      <c r="F18" s="17" t="inlineStr"/>
+      <c r="G18" s="20" t="inlineStr"/>
+      <c r="H18" s="20" t="inlineStr"/>
+      <c r="I18" s="20" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" s="21" t="inlineStr"/>
+      <c r="M18" s="32" t="inlineStr"/>
+      <c r="N18" s="33" t="inlineStr"/>
+      <c r="O18" s="33" t="inlineStr"/>
+      <c r="P18" s="21" t="inlineStr"/>
+      <c r="Q18" s="34" t="inlineStr"/>
+      <c r="R18" s="34" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" s="34" t="inlineStr"/>
+      <c r="U18" s="35" t="inlineStr"/>
+      <c r="V18" s="17" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1682,46 +1624,28 @@
       <c r="L21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>L. Hachid</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>78423_008_01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Travaux en cours</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>43727</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>43753</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>43753</v>
-      </c>
-      <c r="L22" s="3" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" s="3" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1772,103 +1696,52 @@
       <c r="P23" s="16" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>R. SERVY</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>78423_011_01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>43893</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>43908</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>43908</v>
-      </c>
-      <c r="L24" s="3" t="n"/>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>R. SERVY</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>78423_012_01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Travaux en cours</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>43972</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>43999</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>43999</v>
-      </c>
-      <c r="L25" s="37" t="n">
-        <v>44229</v>
-      </c>
-      <c r="M25" s="37" t="n"/>
-      <c r="N25" s="37" t="n">
-        <v>44229</v>
-      </c>
-      <c r="O25" s="15" t="n"/>
-      <c r="P25" s="37" t="n">
-        <v>44237</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>tfx validée</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" s="37" t="inlineStr"/>
+      <c r="M25" s="37" t="inlineStr"/>
+      <c r="N25" s="37" t="inlineStr"/>
+      <c r="O25" s="15" t="inlineStr"/>
+      <c r="P25" s="37" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2204,102 +2077,52 @@
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>94003_007_01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>43546</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>43549</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>43549</v>
-      </c>
-      <c r="N33" s="9" t="n"/>
-      <c r="O33" s="9" t="n"/>
-      <c r="P33" s="11" t="n"/>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" s="9" t="inlineStr"/>
+      <c r="O33" s="9" t="inlineStr"/>
+      <c r="P33" s="11" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B34" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C34" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D34" s="17" t="inlineStr">
-        <is>
-          <t>94003_008_01</t>
-        </is>
-      </c>
-      <c r="E34" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F34" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G34" s="20" t="n">
-        <v>43546</v>
-      </c>
-      <c r="H34" s="20" t="n">
-        <v>43551</v>
-      </c>
-      <c r="I34" s="20" t="n">
-        <v>43551</v>
-      </c>
-      <c r="J34" s="17" t="n"/>
-      <c r="K34" s="17" t="n"/>
-      <c r="L34" s="17" t="n"/>
-      <c r="M34" s="17" t="n"/>
-      <c r="N34" s="17" t="n"/>
-      <c r="O34" s="17" t="n"/>
-      <c r="P34" s="17" t="n"/>
-      <c r="Q34" s="17" t="n"/>
-      <c r="R34" s="17" t="n"/>
-      <c r="S34" s="17" t="n"/>
-      <c r="T34" s="17" t="n"/>
-      <c r="U34" s="17" t="n"/>
-      <c r="V34" s="17" t="n"/>
+      <c r="A34" s="17" t="inlineStr"/>
+      <c r="B34" s="17" t="inlineStr"/>
+      <c r="C34" s="17" t="inlineStr"/>
+      <c r="D34" s="17" t="inlineStr"/>
+      <c r="E34" s="17" t="inlineStr"/>
+      <c r="F34" s="17" t="inlineStr"/>
+      <c r="G34" s="20" t="inlineStr"/>
+      <c r="H34" s="20" t="inlineStr"/>
+      <c r="I34" s="20" t="inlineStr"/>
+      <c r="J34" s="17" t="inlineStr"/>
+      <c r="K34" s="17" t="inlineStr"/>
+      <c r="L34" s="17" t="inlineStr"/>
+      <c r="M34" s="17" t="inlineStr"/>
+      <c r="N34" s="17" t="inlineStr"/>
+      <c r="O34" s="17" t="inlineStr"/>
+      <c r="P34" s="17" t="inlineStr"/>
+      <c r="Q34" s="17" t="inlineStr"/>
+      <c r="R34" s="17" t="inlineStr"/>
+      <c r="S34" s="17" t="inlineStr"/>
+      <c r="T34" s="17" t="inlineStr"/>
+      <c r="U34" s="17" t="inlineStr"/>
+      <c r="V34" s="17" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="17" t="inlineStr">
@@ -2356,220 +2179,100 @@
       <c r="V35" s="17" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B36" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C36" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D36" s="17" t="inlineStr">
-        <is>
-          <t>94017_024_01</t>
-        </is>
-      </c>
-      <c r="E36" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F36" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G36" s="20" t="n">
-        <v>43426</v>
-      </c>
-      <c r="H36" s="20" t="n">
-        <v>43432</v>
-      </c>
-      <c r="I36" s="20" t="n">
-        <v>43432</v>
-      </c>
-      <c r="J36" s="17" t="n"/>
-      <c r="K36" s="17" t="n"/>
-      <c r="L36" s="17" t="n"/>
-      <c r="M36" s="17" t="n"/>
-      <c r="N36" s="17" t="n"/>
-      <c r="O36" s="17" t="n"/>
-      <c r="P36" s="17" t="n"/>
-      <c r="Q36" s="17" t="n"/>
-      <c r="R36" s="17" t="n"/>
-      <c r="S36" s="17" t="n"/>
-      <c r="T36" s="17" t="n"/>
-      <c r="U36" s="17" t="n"/>
-      <c r="V36" s="17" t="n"/>
+      <c r="A36" s="17" t="inlineStr"/>
+      <c r="B36" s="17" t="inlineStr"/>
+      <c r="C36" s="17" t="inlineStr"/>
+      <c r="D36" s="17" t="inlineStr"/>
+      <c r="E36" s="17" t="inlineStr"/>
+      <c r="F36" s="17" t="inlineStr"/>
+      <c r="G36" s="20" t="inlineStr"/>
+      <c r="H36" s="20" t="inlineStr"/>
+      <c r="I36" s="20" t="inlineStr"/>
+      <c r="J36" s="17" t="inlineStr"/>
+      <c r="K36" s="17" t="inlineStr"/>
+      <c r="L36" s="17" t="inlineStr"/>
+      <c r="M36" s="17" t="inlineStr"/>
+      <c r="N36" s="17" t="inlineStr"/>
+      <c r="O36" s="17" t="inlineStr"/>
+      <c r="P36" s="17" t="inlineStr"/>
+      <c r="Q36" s="17" t="inlineStr"/>
+      <c r="R36" s="17" t="inlineStr"/>
+      <c r="S36" s="17" t="inlineStr"/>
+      <c r="T36" s="17" t="inlineStr"/>
+      <c r="U36" s="17" t="inlineStr"/>
+      <c r="V36" s="17" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B37" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C37" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D37" s="17" t="inlineStr">
-        <is>
-          <t>94018_002_13</t>
-        </is>
-      </c>
-      <c r="E37" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F37" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G37" s="20" t="n">
-        <v>43472</v>
-      </c>
-      <c r="H37" s="20" t="n">
-        <v>43485</v>
-      </c>
-      <c r="I37" s="20" t="n">
-        <v>43486</v>
-      </c>
-      <c r="J37" s="17" t="n"/>
-      <c r="K37" s="17" t="n"/>
-      <c r="L37" s="17" t="n"/>
-      <c r="M37" s="17" t="n"/>
-      <c r="N37" s="17" t="n"/>
-      <c r="O37" s="17" t="n"/>
-      <c r="P37" s="17" t="n"/>
-      <c r="Q37" s="17" t="n"/>
-      <c r="R37" s="17" t="n"/>
-      <c r="S37" s="17" t="n"/>
-      <c r="T37" s="17" t="n"/>
-      <c r="U37" s="17" t="n"/>
-      <c r="V37" s="17" t="n"/>
+      <c r="A37" s="17" t="inlineStr"/>
+      <c r="B37" s="17" t="inlineStr"/>
+      <c r="C37" s="17" t="inlineStr"/>
+      <c r="D37" s="17" t="inlineStr"/>
+      <c r="E37" s="17" t="inlineStr"/>
+      <c r="F37" s="17" t="inlineStr"/>
+      <c r="G37" s="20" t="inlineStr"/>
+      <c r="H37" s="20" t="inlineStr"/>
+      <c r="I37" s="20" t="inlineStr"/>
+      <c r="J37" s="17" t="inlineStr"/>
+      <c r="K37" s="17" t="inlineStr"/>
+      <c r="L37" s="17" t="inlineStr"/>
+      <c r="M37" s="17" t="inlineStr"/>
+      <c r="N37" s="17" t="inlineStr"/>
+      <c r="O37" s="17" t="inlineStr"/>
+      <c r="P37" s="17" t="inlineStr"/>
+      <c r="Q37" s="17" t="inlineStr"/>
+      <c r="R37" s="17" t="inlineStr"/>
+      <c r="S37" s="17" t="inlineStr"/>
+      <c r="T37" s="17" t="inlineStr"/>
+      <c r="U37" s="17" t="inlineStr"/>
+      <c r="V37" s="17" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B38" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C38" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D38" s="17" t="inlineStr">
-        <is>
-          <t>94018_012_01</t>
-        </is>
-      </c>
-      <c r="E38" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F38" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G38" s="20" t="n">
-        <v>43517</v>
-      </c>
-      <c r="H38" s="20" t="n">
-        <v>43521</v>
-      </c>
-      <c r="I38" s="20" t="n">
-        <v>43521</v>
-      </c>
-      <c r="J38" s="17" t="n"/>
-      <c r="K38" s="17" t="n"/>
-      <c r="L38" s="17" t="n"/>
-      <c r="M38" s="17" t="n"/>
-      <c r="N38" s="17" t="n"/>
-      <c r="O38" s="17" t="n"/>
-      <c r="P38" s="17" t="n"/>
-      <c r="Q38" s="17" t="n"/>
-      <c r="R38" s="17" t="n"/>
-      <c r="S38" s="17" t="n"/>
-      <c r="T38" s="17" t="n"/>
-      <c r="U38" s="17" t="n"/>
-      <c r="V38" s="17" t="n"/>
+      <c r="A38" s="17" t="inlineStr"/>
+      <c r="B38" s="17" t="inlineStr"/>
+      <c r="C38" s="17" t="inlineStr"/>
+      <c r="D38" s="17" t="inlineStr"/>
+      <c r="E38" s="17" t="inlineStr"/>
+      <c r="F38" s="17" t="inlineStr"/>
+      <c r="G38" s="20" t="inlineStr"/>
+      <c r="H38" s="20" t="inlineStr"/>
+      <c r="I38" s="20" t="inlineStr"/>
+      <c r="J38" s="17" t="inlineStr"/>
+      <c r="K38" s="17" t="inlineStr"/>
+      <c r="L38" s="17" t="inlineStr"/>
+      <c r="M38" s="17" t="inlineStr"/>
+      <c r="N38" s="17" t="inlineStr"/>
+      <c r="O38" s="17" t="inlineStr"/>
+      <c r="P38" s="17" t="inlineStr"/>
+      <c r="Q38" s="17" t="inlineStr"/>
+      <c r="R38" s="17" t="inlineStr"/>
+      <c r="S38" s="17" t="inlineStr"/>
+      <c r="T38" s="17" t="inlineStr"/>
+      <c r="U38" s="17" t="inlineStr"/>
+      <c r="V38" s="17" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B39" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C39" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D39" s="17" t="inlineStr">
-        <is>
-          <t>94019_007_06</t>
-        </is>
-      </c>
-      <c r="E39" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F39" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G39" s="20" t="n">
-        <v>43482</v>
-      </c>
-      <c r="H39" s="20" t="n">
-        <v>43500</v>
-      </c>
-      <c r="I39" s="20" t="n">
-        <v>43500</v>
-      </c>
-      <c r="J39" s="17" t="n"/>
-      <c r="K39" s="17" t="n"/>
-      <c r="L39" s="17" t="n"/>
-      <c r="M39" s="17" t="n"/>
-      <c r="N39" s="17" t="n"/>
-      <c r="O39" s="17" t="n"/>
-      <c r="P39" s="17" t="n"/>
-      <c r="Q39" s="17" t="n"/>
-      <c r="R39" s="17" t="n"/>
-      <c r="S39" s="17" t="n"/>
-      <c r="T39" s="17" t="n"/>
-      <c r="U39" s="17" t="n"/>
-      <c r="V39" s="17" t="n"/>
+      <c r="A39" s="17" t="inlineStr"/>
+      <c r="B39" s="17" t="inlineStr"/>
+      <c r="C39" s="17" t="inlineStr"/>
+      <c r="D39" s="17" t="inlineStr"/>
+      <c r="E39" s="17" t="inlineStr"/>
+      <c r="F39" s="17" t="inlineStr"/>
+      <c r="G39" s="20" t="inlineStr"/>
+      <c r="H39" s="20" t="inlineStr"/>
+      <c r="I39" s="20" t="inlineStr"/>
+      <c r="J39" s="17" t="inlineStr"/>
+      <c r="K39" s="17" t="inlineStr"/>
+      <c r="L39" s="17" t="inlineStr"/>
+      <c r="M39" s="17" t="inlineStr"/>
+      <c r="N39" s="17" t="inlineStr"/>
+      <c r="O39" s="17" t="inlineStr"/>
+      <c r="P39" s="17" t="inlineStr"/>
+      <c r="Q39" s="17" t="inlineStr"/>
+      <c r="R39" s="17" t="inlineStr"/>
+      <c r="S39" s="17" t="inlineStr"/>
+      <c r="T39" s="17" t="inlineStr"/>
+      <c r="U39" s="17" t="inlineStr"/>
+      <c r="V39" s="17" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2788,58 +2491,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B44" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C44" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D44" s="17" t="inlineStr">
-        <is>
-          <t>94034_004_06</t>
-        </is>
-      </c>
-      <c r="E44" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F44" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G44" s="20" t="n">
-        <v>43370</v>
-      </c>
-      <c r="H44" s="20" t="n">
-        <v>43378</v>
-      </c>
-      <c r="I44" s="20" t="n">
-        <v>43382</v>
-      </c>
-      <c r="J44" s="17" t="n"/>
-      <c r="K44" s="17" t="n"/>
-      <c r="L44" s="17" t="n"/>
-      <c r="M44" s="17" t="n"/>
-      <c r="N44" s="17" t="n"/>
-      <c r="O44" s="17" t="n"/>
-      <c r="P44" s="17" t="n"/>
-      <c r="Q44" s="17" t="n"/>
-      <c r="R44" s="17" t="n"/>
-      <c r="S44" s="17" t="n"/>
-      <c r="T44" s="17" t="n"/>
-      <c r="U44" s="17" t="n"/>
-      <c r="V44" s="17" t="n"/>
+      <c r="A44" s="17" t="inlineStr"/>
+      <c r="B44" s="17" t="inlineStr"/>
+      <c r="C44" s="17" t="inlineStr"/>
+      <c r="D44" s="17" t="inlineStr"/>
+      <c r="E44" s="17" t="inlineStr"/>
+      <c r="F44" s="17" t="inlineStr"/>
+      <c r="G44" s="20" t="inlineStr"/>
+      <c r="H44" s="20" t="inlineStr"/>
+      <c r="I44" s="20" t="inlineStr"/>
+      <c r="J44" s="17" t="inlineStr"/>
+      <c r="K44" s="17" t="inlineStr"/>
+      <c r="L44" s="17" t="inlineStr"/>
+      <c r="M44" s="17" t="inlineStr"/>
+      <c r="N44" s="17" t="inlineStr"/>
+      <c r="O44" s="17" t="inlineStr"/>
+      <c r="P44" s="17" t="inlineStr"/>
+      <c r="Q44" s="17" t="inlineStr"/>
+      <c r="R44" s="17" t="inlineStr"/>
+      <c r="S44" s="17" t="inlineStr"/>
+      <c r="T44" s="17" t="inlineStr"/>
+      <c r="U44" s="17" t="inlineStr"/>
+      <c r="V44" s="17" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2952,58 +2625,28 @@
       <c r="V46" s="19" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B47" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C47" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D47" s="17" t="inlineStr">
-        <is>
-          <t>94042_003_08</t>
-        </is>
-      </c>
-      <c r="E47" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F47" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G47" s="20" t="n">
-        <v>43601</v>
-      </c>
-      <c r="H47" s="20" t="n">
-        <v>43602</v>
-      </c>
-      <c r="I47" s="20" t="n">
-        <v>43602</v>
-      </c>
-      <c r="J47" s="17" t="n"/>
-      <c r="K47" s="17" t="n"/>
-      <c r="L47" s="17" t="n"/>
-      <c r="M47" s="17" t="n"/>
-      <c r="N47" s="17" t="n"/>
-      <c r="O47" s="17" t="n"/>
-      <c r="P47" s="17" t="n"/>
-      <c r="Q47" s="17" t="n"/>
-      <c r="R47" s="17" t="n"/>
-      <c r="S47" s="17" t="n"/>
-      <c r="T47" s="17" t="n"/>
-      <c r="U47" s="17" t="n"/>
-      <c r="V47" s="17" t="n"/>
+      <c r="A47" s="17" t="inlineStr"/>
+      <c r="B47" s="17" t="inlineStr"/>
+      <c r="C47" s="17" t="inlineStr"/>
+      <c r="D47" s="17" t="inlineStr"/>
+      <c r="E47" s="17" t="inlineStr"/>
+      <c r="F47" s="17" t="inlineStr"/>
+      <c r="G47" s="20" t="inlineStr"/>
+      <c r="H47" s="20" t="inlineStr"/>
+      <c r="I47" s="20" t="inlineStr"/>
+      <c r="J47" s="17" t="inlineStr"/>
+      <c r="K47" s="17" t="inlineStr"/>
+      <c r="L47" s="17" t="inlineStr"/>
+      <c r="M47" s="17" t="inlineStr"/>
+      <c r="N47" s="17" t="inlineStr"/>
+      <c r="O47" s="17" t="inlineStr"/>
+      <c r="P47" s="17" t="inlineStr"/>
+      <c r="Q47" s="17" t="inlineStr"/>
+      <c r="R47" s="17" t="inlineStr"/>
+      <c r="S47" s="17" t="inlineStr"/>
+      <c r="T47" s="17" t="inlineStr"/>
+      <c r="U47" s="17" t="inlineStr"/>
+      <c r="V47" s="17" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="17" t="inlineStr">
@@ -3060,58 +2703,28 @@
       <c r="V48" s="17" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B49" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C49" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D49" s="17" t="inlineStr">
-        <is>
-          <t>94043_011_01</t>
-        </is>
-      </c>
-      <c r="E49" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F49" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G49" s="20" t="n">
-        <v>43426</v>
-      </c>
-      <c r="H49" s="20" t="n">
-        <v>43430</v>
-      </c>
-      <c r="I49" s="20" t="n">
-        <v>43430</v>
-      </c>
-      <c r="J49" s="17" t="n"/>
-      <c r="K49" s="17" t="n"/>
-      <c r="L49" s="17" t="n"/>
-      <c r="M49" s="17" t="n"/>
-      <c r="N49" s="17" t="n"/>
-      <c r="O49" s="17" t="n"/>
-      <c r="P49" s="17" t="n"/>
-      <c r="Q49" s="17" t="n"/>
-      <c r="R49" s="17" t="n"/>
-      <c r="S49" s="17" t="n"/>
-      <c r="T49" s="17" t="n"/>
-      <c r="U49" s="17" t="n"/>
-      <c r="V49" s="17" t="n"/>
+      <c r="A49" s="17" t="inlineStr"/>
+      <c r="B49" s="17" t="inlineStr"/>
+      <c r="C49" s="17" t="inlineStr"/>
+      <c r="D49" s="17" t="inlineStr"/>
+      <c r="E49" s="17" t="inlineStr"/>
+      <c r="F49" s="17" t="inlineStr"/>
+      <c r="G49" s="20" t="inlineStr"/>
+      <c r="H49" s="20" t="inlineStr"/>
+      <c r="I49" s="20" t="inlineStr"/>
+      <c r="J49" s="17" t="inlineStr"/>
+      <c r="K49" s="17" t="inlineStr"/>
+      <c r="L49" s="17" t="inlineStr"/>
+      <c r="M49" s="17" t="inlineStr"/>
+      <c r="N49" s="17" t="inlineStr"/>
+      <c r="O49" s="17" t="inlineStr"/>
+      <c r="P49" s="17" t="inlineStr"/>
+      <c r="Q49" s="17" t="inlineStr"/>
+      <c r="R49" s="17" t="inlineStr"/>
+      <c r="S49" s="17" t="inlineStr"/>
+      <c r="T49" s="17" t="inlineStr"/>
+      <c r="U49" s="17" t="inlineStr"/>
+      <c r="V49" s="17" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3155,105 +2768,52 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B51" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C51" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D51" s="17" t="inlineStr">
-        <is>
-          <t>94052_009_01</t>
-        </is>
-      </c>
-      <c r="E51" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F51" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G51" s="20" t="n">
-        <v>43426</v>
-      </c>
-      <c r="H51" s="20" t="n">
-        <v>43434</v>
-      </c>
-      <c r="I51" s="20" t="n">
-        <v>43434</v>
-      </c>
-      <c r="J51" s="17" t="n"/>
-      <c r="K51" s="17" t="n"/>
-      <c r="L51" s="17" t="n"/>
-      <c r="M51" s="17" t="n"/>
-      <c r="N51" s="17" t="n"/>
-      <c r="O51" s="17" t="n"/>
-      <c r="P51" s="17" t="n"/>
-      <c r="Q51" s="17" t="n"/>
-      <c r="R51" s="17" t="n"/>
-      <c r="S51" s="17" t="n"/>
-      <c r="T51" s="17" t="n"/>
-      <c r="U51" s="17" t="n"/>
-      <c r="V51" s="17" t="n"/>
+      <c r="A51" s="17" t="inlineStr"/>
+      <c r="B51" s="17" t="inlineStr"/>
+      <c r="C51" s="17" t="inlineStr"/>
+      <c r="D51" s="17" t="inlineStr"/>
+      <c r="E51" s="17" t="inlineStr"/>
+      <c r="F51" s="17" t="inlineStr"/>
+      <c r="G51" s="20" t="inlineStr"/>
+      <c r="H51" s="20" t="inlineStr"/>
+      <c r="I51" s="20" t="inlineStr"/>
+      <c r="J51" s="17" t="inlineStr"/>
+      <c r="K51" s="17" t="inlineStr"/>
+      <c r="L51" s="17" t="inlineStr"/>
+      <c r="M51" s="17" t="inlineStr"/>
+      <c r="N51" s="17" t="inlineStr"/>
+      <c r="O51" s="17" t="inlineStr"/>
+      <c r="P51" s="17" t="inlineStr"/>
+      <c r="Q51" s="17" t="inlineStr"/>
+      <c r="R51" s="17" t="inlineStr"/>
+      <c r="S51" s="17" t="inlineStr"/>
+      <c r="T51" s="17" t="inlineStr"/>
+      <c r="U51" s="17" t="inlineStr"/>
+      <c r="V51" s="17" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>94054_006_01</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>43565</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>43572</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>43572</v>
-      </c>
-      <c r="S52" s="6" t="n"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Attente facturation</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" s="6" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="17" t="inlineStr">
@@ -3520,60 +3080,28 @@
       <c r="V57" s="17" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B58" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C58" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D58" s="17" t="inlineStr">
-        <is>
-          <t>94068_015_04</t>
-        </is>
-      </c>
-      <c r="E58" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F58" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G58" s="20" t="n">
-        <v>43507</v>
-      </c>
-      <c r="H58" s="20" t="n">
-        <v>43514</v>
-      </c>
-      <c r="I58" s="17" t="inlineStr">
-        <is>
-          <t>0000-00-00</t>
-        </is>
-      </c>
-      <c r="J58" s="17" t="n"/>
-      <c r="K58" s="17" t="n"/>
-      <c r="L58" s="17" t="n"/>
-      <c r="M58" s="17" t="n"/>
-      <c r="N58" s="17" t="n"/>
-      <c r="O58" s="17" t="n"/>
-      <c r="P58" s="17" t="n"/>
-      <c r="Q58" s="17" t="n"/>
-      <c r="R58" s="17" t="n"/>
-      <c r="S58" s="17" t="n"/>
-      <c r="T58" s="17" t="n"/>
-      <c r="U58" s="17" t="n"/>
-      <c r="V58" s="17" t="n"/>
+      <c r="A58" s="17" t="inlineStr"/>
+      <c r="B58" s="17" t="inlineStr"/>
+      <c r="C58" s="17" t="inlineStr"/>
+      <c r="D58" s="17" t="inlineStr"/>
+      <c r="E58" s="17" t="inlineStr"/>
+      <c r="F58" s="17" t="inlineStr"/>
+      <c r="G58" s="20" t="inlineStr"/>
+      <c r="H58" s="20" t="inlineStr"/>
+      <c r="I58" s="17" t="inlineStr"/>
+      <c r="J58" s="17" t="inlineStr"/>
+      <c r="K58" s="17" t="inlineStr"/>
+      <c r="L58" s="17" t="inlineStr"/>
+      <c r="M58" s="17" t="inlineStr"/>
+      <c r="N58" s="17" t="inlineStr"/>
+      <c r="O58" s="17" t="inlineStr"/>
+      <c r="P58" s="17" t="inlineStr"/>
+      <c r="Q58" s="17" t="inlineStr"/>
+      <c r="R58" s="17" t="inlineStr"/>
+      <c r="S58" s="17" t="inlineStr"/>
+      <c r="T58" s="17" t="inlineStr"/>
+      <c r="U58" s="17" t="inlineStr"/>
+      <c r="V58" s="17" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="17" t="inlineStr">
@@ -3885,112 +3413,52 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B65" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C65" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D65" s="17" t="inlineStr">
-        <is>
-          <t>94073_010_01</t>
-        </is>
-      </c>
-      <c r="E65" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F65" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G65" s="20" t="n">
-        <v>43509</v>
-      </c>
-      <c r="H65" s="20" t="n">
-        <v>43520</v>
-      </c>
-      <c r="I65" s="20" t="n">
-        <v>43522</v>
-      </c>
-      <c r="J65" s="17" t="n"/>
-      <c r="K65" s="17" t="n"/>
-      <c r="L65" s="17" t="n"/>
-      <c r="M65" s="17" t="n"/>
-      <c r="N65" s="17" t="n"/>
-      <c r="O65" s="17" t="n"/>
-      <c r="P65" s="17" t="n"/>
-      <c r="Q65" s="17" t="n"/>
-      <c r="R65" s="17" t="n"/>
-      <c r="S65" s="17" t="n"/>
-      <c r="T65" s="17" t="n"/>
-      <c r="U65" s="17" t="n"/>
-      <c r="V65" s="17" t="n"/>
+      <c r="A65" s="17" t="inlineStr"/>
+      <c r="B65" s="17" t="inlineStr"/>
+      <c r="C65" s="17" t="inlineStr"/>
+      <c r="D65" s="17" t="inlineStr"/>
+      <c r="E65" s="17" t="inlineStr"/>
+      <c r="F65" s="17" t="inlineStr"/>
+      <c r="G65" s="20" t="inlineStr"/>
+      <c r="H65" s="20" t="inlineStr"/>
+      <c r="I65" s="20" t="inlineStr"/>
+      <c r="J65" s="17" t="inlineStr"/>
+      <c r="K65" s="17" t="inlineStr"/>
+      <c r="L65" s="17" t="inlineStr"/>
+      <c r="M65" s="17" t="inlineStr"/>
+      <c r="N65" s="17" t="inlineStr"/>
+      <c r="O65" s="17" t="inlineStr"/>
+      <c r="P65" s="17" t="inlineStr"/>
+      <c r="Q65" s="17" t="inlineStr"/>
+      <c r="R65" s="17" t="inlineStr"/>
+      <c r="S65" s="17" t="inlineStr"/>
+      <c r="T65" s="17" t="inlineStr"/>
+      <c r="U65" s="17" t="inlineStr"/>
+      <c r="V65" s="17" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B66" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C66" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D66" s="17" t="inlineStr">
-        <is>
-          <t>94073_011_01</t>
-        </is>
-      </c>
-      <c r="E66" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F66" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G66" s="20" t="n">
-        <v>43523</v>
-      </c>
-      <c r="H66" s="20" t="n">
-        <v>43524</v>
-      </c>
-      <c r="I66" s="20" t="n">
-        <v>43524</v>
-      </c>
-      <c r="J66" s="17" t="n"/>
-      <c r="K66" s="17" t="n"/>
-      <c r="L66" s="17" t="n"/>
-      <c r="M66" s="17" t="n"/>
-      <c r="N66" s="17" t="n"/>
-      <c r="O66" s="17" t="n"/>
-      <c r="P66" s="17" t="n"/>
-      <c r="Q66" s="17" t="n"/>
-      <c r="R66" s="17" t="n"/>
-      <c r="S66" s="17" t="n"/>
-      <c r="T66" s="17" t="n"/>
-      <c r="U66" s="17" t="n"/>
-      <c r="V66" s="17" t="n"/>
+      <c r="A66" s="17" t="inlineStr"/>
+      <c r="B66" s="17" t="inlineStr"/>
+      <c r="C66" s="17" t="inlineStr"/>
+      <c r="D66" s="17" t="inlineStr"/>
+      <c r="E66" s="17" t="inlineStr"/>
+      <c r="F66" s="17" t="inlineStr"/>
+      <c r="G66" s="20" t="inlineStr"/>
+      <c r="H66" s="20" t="inlineStr"/>
+      <c r="I66" s="20" t="inlineStr"/>
+      <c r="J66" s="17" t="inlineStr"/>
+      <c r="K66" s="17" t="inlineStr"/>
+      <c r="L66" s="17" t="inlineStr"/>
+      <c r="M66" s="17" t="inlineStr"/>
+      <c r="N66" s="17" t="inlineStr"/>
+      <c r="O66" s="17" t="inlineStr"/>
+      <c r="P66" s="17" t="inlineStr"/>
+      <c r="Q66" s="17" t="inlineStr"/>
+      <c r="R66" s="17" t="inlineStr"/>
+      <c r="S66" s="17" t="inlineStr"/>
+      <c r="T66" s="17" t="inlineStr"/>
+      <c r="U66" s="17" t="inlineStr"/>
+      <c r="V66" s="17" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4096,54 +3564,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B69" s="17" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="C69" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D69" s="17" t="inlineStr">
-        <is>
-          <t>94075_005_10</t>
-        </is>
-      </c>
-      <c r="E69" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F69" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G69" s="20" t="n">
-        <v>43859</v>
-      </c>
-      <c r="H69" s="17" t="n"/>
-      <c r="I69" s="17" t="n"/>
-      <c r="J69" s="17" t="n"/>
-      <c r="K69" s="17" t="n"/>
-      <c r="L69" s="17" t="n"/>
-      <c r="M69" s="17" t="n"/>
-      <c r="N69" s="17" t="n"/>
-      <c r="O69" s="17" t="n"/>
-      <c r="P69" s="17" t="n"/>
-      <c r="Q69" s="17" t="n"/>
-      <c r="R69" s="17" t="n"/>
-      <c r="S69" s="17" t="n"/>
-      <c r="T69" s="17" t="n"/>
-      <c r="U69" s="17" t="n"/>
-      <c r="V69" s="17" t="n"/>
+      <c r="A69" s="17" t="inlineStr"/>
+      <c r="B69" s="17" t="inlineStr"/>
+      <c r="C69" s="17" t="inlineStr"/>
+      <c r="D69" s="17" t="inlineStr"/>
+      <c r="E69" s="17" t="inlineStr"/>
+      <c r="F69" s="17" t="inlineStr"/>
+      <c r="G69" s="20" t="inlineStr"/>
+      <c r="H69" s="17" t="inlineStr"/>
+      <c r="I69" s="17" t="inlineStr"/>
+      <c r="J69" s="17" t="inlineStr"/>
+      <c r="K69" s="17" t="inlineStr"/>
+      <c r="L69" s="17" t="inlineStr"/>
+      <c r="M69" s="17" t="inlineStr"/>
+      <c r="N69" s="17" t="inlineStr"/>
+      <c r="O69" s="17" t="inlineStr"/>
+      <c r="P69" s="17" t="inlineStr"/>
+      <c r="Q69" s="17" t="inlineStr"/>
+      <c r="R69" s="17" t="inlineStr"/>
+      <c r="S69" s="17" t="inlineStr"/>
+      <c r="T69" s="17" t="inlineStr"/>
+      <c r="U69" s="17" t="inlineStr"/>
+      <c r="V69" s="17" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4193,58 +3635,28 @@
       <c r="S70" s="6" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B71" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C71" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D71" s="17" t="inlineStr">
-        <is>
-          <t>94078_010_02</t>
-        </is>
-      </c>
-      <c r="E71" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F71" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G71" s="20" t="n">
-        <v>43431</v>
-      </c>
-      <c r="H71" s="20" t="n">
-        <v>43434</v>
-      </c>
-      <c r="I71" s="20" t="n">
-        <v>43434</v>
-      </c>
-      <c r="J71" s="17" t="n"/>
-      <c r="K71" s="17" t="n"/>
-      <c r="L71" s="17" t="n"/>
-      <c r="M71" s="17" t="n"/>
-      <c r="N71" s="17" t="n"/>
-      <c r="O71" s="17" t="n"/>
-      <c r="P71" s="17" t="n"/>
-      <c r="Q71" s="17" t="n"/>
-      <c r="R71" s="17" t="n"/>
-      <c r="S71" s="17" t="n"/>
-      <c r="T71" s="17" t="n"/>
-      <c r="U71" s="17" t="n"/>
-      <c r="V71" s="17" t="n"/>
+      <c r="A71" s="17" t="inlineStr"/>
+      <c r="B71" s="17" t="inlineStr"/>
+      <c r="C71" s="17" t="inlineStr"/>
+      <c r="D71" s="17" t="inlineStr"/>
+      <c r="E71" s="17" t="inlineStr"/>
+      <c r="F71" s="17" t="inlineStr"/>
+      <c r="G71" s="20" t="inlineStr"/>
+      <c r="H71" s="20" t="inlineStr"/>
+      <c r="I71" s="20" t="inlineStr"/>
+      <c r="J71" s="17" t="inlineStr"/>
+      <c r="K71" s="17" t="inlineStr"/>
+      <c r="L71" s="17" t="inlineStr"/>
+      <c r="M71" s="17" t="inlineStr"/>
+      <c r="N71" s="17" t="inlineStr"/>
+      <c r="O71" s="17" t="inlineStr"/>
+      <c r="P71" s="17" t="inlineStr"/>
+      <c r="Q71" s="17" t="inlineStr"/>
+      <c r="R71" s="17" t="inlineStr"/>
+      <c r="S71" s="17" t="inlineStr"/>
+      <c r="T71" s="17" t="inlineStr"/>
+      <c r="U71" s="17" t="inlineStr"/>
+      <c r="V71" s="17" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4288,58 +3700,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B73" s="17" t="inlineStr">
-        <is>
-          <t>BTS</t>
-        </is>
-      </c>
-      <c r="C73" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D73" s="17" t="inlineStr">
-        <is>
-          <t>94079_009_01</t>
-        </is>
-      </c>
-      <c r="E73" s="17" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="F73" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G73" s="20" t="n">
-        <v>43546</v>
-      </c>
-      <c r="H73" s="20" t="n">
-        <v>43552</v>
-      </c>
-      <c r="I73" s="20" t="n">
-        <v>43552</v>
-      </c>
-      <c r="J73" s="17" t="n"/>
-      <c r="K73" s="17" t="n"/>
-      <c r="L73" s="17" t="n"/>
-      <c r="M73" s="17" t="n"/>
-      <c r="N73" s="17" t="n"/>
-      <c r="O73" s="17" t="n"/>
-      <c r="P73" s="17" t="n"/>
-      <c r="Q73" s="17" t="n"/>
-      <c r="R73" s="17" t="n"/>
-      <c r="S73" s="17" t="n"/>
-      <c r="T73" s="17" t="n"/>
-      <c r="U73" s="17" t="n"/>
-      <c r="V73" s="17" t="n"/>
+      <c r="A73" s="17" t="inlineStr"/>
+      <c r="B73" s="17" t="inlineStr"/>
+      <c r="C73" s="17" t="inlineStr"/>
+      <c r="D73" s="17" t="inlineStr"/>
+      <c r="E73" s="17" t="inlineStr"/>
+      <c r="F73" s="17" t="inlineStr"/>
+      <c r="G73" s="20" t="inlineStr"/>
+      <c r="H73" s="20" t="inlineStr"/>
+      <c r="I73" s="20" t="inlineStr"/>
+      <c r="J73" s="17" t="inlineStr"/>
+      <c r="K73" s="17" t="inlineStr"/>
+      <c r="L73" s="17" t="inlineStr"/>
+      <c r="M73" s="17" t="inlineStr"/>
+      <c r="N73" s="17" t="inlineStr"/>
+      <c r="O73" s="17" t="inlineStr"/>
+      <c r="P73" s="17" t="inlineStr"/>
+      <c r="Q73" s="17" t="inlineStr"/>
+      <c r="R73" s="17" t="inlineStr"/>
+      <c r="S73" s="17" t="inlineStr"/>
+      <c r="T73" s="17" t="inlineStr"/>
+      <c r="U73" s="17" t="inlineStr"/>
+      <c r="V73" s="17" t="inlineStr"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="17" t="inlineStr">
@@ -5314,54 +4696,28 @@
       <c r="V91" s="17" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B92" s="17" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="C92" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D92" s="17" t="inlineStr">
-        <is>
-          <t>GC 94004_006_08</t>
-        </is>
-      </c>
-      <c r="E92" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F92" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G92" s="20" t="n">
-        <v>43587</v>
-      </c>
-      <c r="H92" s="17" t="n"/>
-      <c r="I92" s="17" t="n"/>
-      <c r="J92" s="17" t="n"/>
-      <c r="K92" s="17" t="n"/>
-      <c r="L92" s="17" t="n"/>
-      <c r="M92" s="17" t="n"/>
-      <c r="N92" s="17" t="n"/>
-      <c r="O92" s="17" t="n"/>
-      <c r="P92" s="17" t="n"/>
-      <c r="Q92" s="17" t="n"/>
-      <c r="R92" s="17" t="n"/>
-      <c r="S92" s="17" t="n"/>
-      <c r="T92" s="17" t="n"/>
-      <c r="U92" s="17" t="n"/>
-      <c r="V92" s="17" t="n"/>
+      <c r="A92" s="17" t="inlineStr"/>
+      <c r="B92" s="17" t="inlineStr"/>
+      <c r="C92" s="17" t="inlineStr"/>
+      <c r="D92" s="17" t="inlineStr"/>
+      <c r="E92" s="17" t="inlineStr"/>
+      <c r="F92" s="17" t="inlineStr"/>
+      <c r="G92" s="20" t="inlineStr"/>
+      <c r="H92" s="17" t="inlineStr"/>
+      <c r="I92" s="17" t="inlineStr"/>
+      <c r="J92" s="17" t="inlineStr"/>
+      <c r="K92" s="17" t="inlineStr"/>
+      <c r="L92" s="17" t="inlineStr"/>
+      <c r="M92" s="17" t="inlineStr"/>
+      <c r="N92" s="17" t="inlineStr"/>
+      <c r="O92" s="17" t="inlineStr"/>
+      <c r="P92" s="17" t="inlineStr"/>
+      <c r="Q92" s="17" t="inlineStr"/>
+      <c r="R92" s="17" t="inlineStr"/>
+      <c r="S92" s="17" t="inlineStr"/>
+      <c r="T92" s="17" t="inlineStr"/>
+      <c r="U92" s="17" t="inlineStr"/>
+      <c r="V92" s="17" t="inlineStr"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" t="inlineStr">
@@ -5549,58 +4905,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="17" t="inlineStr">
-        <is>
-          <t>A. BEN MOHAMED</t>
-        </is>
-      </c>
-      <c r="B97" s="17" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="C97" s="17" t="inlineStr">
-        <is>
-          <t>T0 validé</t>
-        </is>
-      </c>
-      <c r="D97" s="17" t="inlineStr">
-        <is>
-          <t>POM94-NSG93</t>
-        </is>
-      </c>
-      <c r="E97" s="17" t="inlineStr">
-        <is>
-          <t>Intégré</t>
-        </is>
-      </c>
-      <c r="F97" s="17" t="inlineStr">
-        <is>
-          <t>Sebastien GELSI</t>
-        </is>
-      </c>
-      <c r="G97" s="20" t="n">
-        <v>44034</v>
-      </c>
-      <c r="H97" s="20" t="n">
-        <v>44034</v>
-      </c>
-      <c r="I97" s="20" t="n">
-        <v>44046</v>
-      </c>
-      <c r="J97" s="17" t="n"/>
-      <c r="K97" s="17" t="n"/>
-      <c r="L97" s="17" t="n"/>
-      <c r="M97" s="17" t="n"/>
-      <c r="N97" s="17" t="n"/>
-      <c r="O97" s="17" t="n"/>
-      <c r="P97" s="17" t="n"/>
-      <c r="Q97" s="17" t="n"/>
-      <c r="R97" s="17" t="n"/>
-      <c r="S97" s="17" t="n"/>
-      <c r="T97" s="17" t="n"/>
-      <c r="U97" s="17" t="n"/>
-      <c r="V97" s="17" t="n"/>
+      <c r="A97" s="17" t="inlineStr"/>
+      <c r="B97" s="17" t="inlineStr"/>
+      <c r="C97" s="17" t="inlineStr"/>
+      <c r="D97" s="17" t="inlineStr"/>
+      <c r="E97" s="17" t="inlineStr"/>
+      <c r="F97" s="17" t="inlineStr"/>
+      <c r="G97" s="20" t="inlineStr"/>
+      <c r="H97" s="20" t="inlineStr"/>
+      <c r="I97" s="20" t="inlineStr"/>
+      <c r="J97" s="17" t="inlineStr"/>
+      <c r="K97" s="17" t="inlineStr"/>
+      <c r="L97" s="17" t="inlineStr"/>
+      <c r="M97" s="17" t="inlineStr"/>
+      <c r="N97" s="17" t="inlineStr"/>
+      <c r="O97" s="17" t="inlineStr"/>
+      <c r="P97" s="17" t="inlineStr"/>
+      <c r="Q97" s="17" t="inlineStr"/>
+      <c r="R97" s="17" t="inlineStr"/>
+      <c r="S97" s="17" t="inlineStr"/>
+      <c r="T97" s="17" t="inlineStr"/>
+      <c r="U97" s="17" t="inlineStr"/>
+      <c r="V97" s="17" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="17" t="inlineStr">
